--- a/AdultIncome/Performance_metrics/model_perf_metrics_merged_LR_Traning_on_X_fit.xlsx
+++ b/AdultIncome/Performance_metrics/model_perf_metrics_merged_LR_Traning_on_X_fit.xlsx
@@ -502,10 +502,10 @@
         <v>27133</v>
       </c>
       <c r="G2" t="n">
-        <v>0.999031224383337</v>
+        <v>0.9993296089385475</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9991318422101362</v>
+        <v>0.9994797114832115</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -536,10 +536,10 @@
         <v>27133</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5966478564810915</v>
+        <v>0.3826314071172054</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7241817072048653</v>
+        <v>0.6133632875616863</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -570,10 +570,10 @@
         <v>27143</v>
       </c>
       <c r="G4" t="n">
-        <v>0.595995288574794</v>
+        <v>0.3812534059945504</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7237825715288317</v>
+        <v>0.6128494943551038</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -604,10 +604,10 @@
         <v>27143</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5962137147665123</v>
+        <v>0.3820934538721272</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7239059406936157</v>
+        <v>0.6131970359631881</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -638,10 +638,10 @@
         <v>27148</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5965000841325929</v>
+        <v>0.4113431613431613</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7240388581844491</v>
+        <v>0.6240513875621257</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -672,10 +672,10 @@
         <v>27148</v>
       </c>
       <c r="G7" t="n">
-        <v>0.596314062105529</v>
+        <v>0.3821864111498258</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7239312535874887</v>
+        <v>0.6132393466153476</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>27153</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5958483906210607</v>
+        <v>0.3826408527300414</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7236138617715261</v>
+        <v>0.6134235546715933</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>27153</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5956302521008404</v>
+        <v>0.3827751196172249</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7235238110485128</v>
+        <v>0.6134733666752057</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>27163</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5961909556170819</v>
+        <v>0.4129835663978769</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7238173897613605</v>
+        <v>0.6247566982105555</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -808,10 +808,10 @@
         <v>27163</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5954659949622165</v>
+        <v>0.3841979596266551</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7233633699029288</v>
+        <v>0.6140618709066356</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
